--- a/Views/ResultadosRegresión.xlsx
+++ b/Views/ResultadosRegresión.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yilmer Palacios\Desktop\Taller 2 R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yilmer Palacios\Desktop\Repositorios GitHub\Taller-2---BD-ML\Views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E557C7-B592-4E2B-94CE-8E0EB559C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6C645-2BC3-4C3F-9E4A-E08651B554D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -62,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,7 +77,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,12 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +421,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,16 +431,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -441,7 +448,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>0.83509999999999995</v>
       </c>
       <c r="C2" s="1">
@@ -455,7 +462,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0.83440000000000003</v>
       </c>
       <c r="C3" s="1">
@@ -469,13 +476,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0.80169999999999997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +490,18 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.84689999999999999</v>
+      <c r="B5" s="5">
+        <v>0.85089999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.33229999999999998</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.9758</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>